--- a/file3.xlsx
+++ b/file3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uzair\Desktop\Work\Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF152DA-0E1A-49AD-82A9-DD3928EEC423}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28BEA92-7091-4D3D-911F-DBFB21BFCD4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{58F0D9BD-14BE-43F6-9692-9E55450D4BC6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{58F0D9BD-14BE-43F6-9692-9E55450D4BC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Heading 1</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>MAX_RUNTIME</t>
+  </si>
+  <si>
+    <t>lrs-200 JOB Failure</t>
   </si>
 </sst>
 </file>
@@ -449,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F476CB06-81BC-4429-AE97-5102B6612F13}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -479,8 +485,8 @@
       <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="D2" s="2">
-        <v>4</v>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -493,8 +499,8 @@
       <c r="C3" s="2">
         <v>6</v>
       </c>
-      <c r="D3" s="2">
-        <v>8</v>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -507,8 +513,8 @@
       <c r="C4" s="2">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
-        <v>12</v>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -521,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64222A43-BCA1-422C-9DCD-702105301D01}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>

--- a/file3.xlsx
+++ b/file3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uzair\Desktop\Work\Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28BEA92-7091-4D3D-911F-DBFB21BFCD4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5016BD3C-4964-4D9B-8053-032EE6B5D981}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{58F0D9BD-14BE-43F6-9692-9E55450D4BC6}"/>
   </bookViews>
@@ -32,19 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t>Heading 1</t>
-  </si>
-  <si>
-    <t>Heading 2</t>
-  </si>
-  <si>
-    <t>Heading 3</t>
-  </si>
-  <si>
-    <t>Heading 4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>24y546u</t>
   </si>
@@ -73,17 +61,116 @@
     <t>v</t>
   </si>
   <si>
-    <t>MAX_RUNTIME</t>
-  </si>
-  <si>
-    <t>lrs-200 JOB Failure</t>
+    <t>Incident</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>MessageAlert</t>
+  </si>
+  <si>
+    <t>JobName</t>
+  </si>
+  <si>
+    <t>Annotation</t>
+  </si>
+  <si>
+    <t>AUTOSYS ALARM: MAX_RUNTIME, JOB: app-system-upload</t>
+  </si>
+  <si>
+    <t>AUTOSYS ALARM: JOB_FAILURE, JOB: app-lrs-200-setup_launch</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>DVP</t>
+  </si>
+  <si>
+    <t>OMR</t>
+  </si>
+  <si>
+    <t>INC0001</t>
+  </si>
+  <si>
+    <t>INC0002</t>
+  </si>
+  <si>
+    <t>INC0003</t>
+  </si>
+  <si>
+    <t>INC0004</t>
+  </si>
+  <si>
+    <t>INC0005</t>
+  </si>
+  <si>
+    <t>INC0006</t>
+  </si>
+  <si>
+    <t>INC0007</t>
+  </si>
+  <si>
+    <t>INC0008</t>
+  </si>
+  <si>
+    <t>INC0009</t>
+  </si>
+  <si>
+    <t>INC0010</t>
+  </si>
+  <si>
+    <t>INC0011</t>
+  </si>
+  <si>
+    <t>INC0012</t>
+  </si>
+  <si>
+    <t>INC0013</t>
+  </si>
+  <si>
+    <t>STARS</t>
+  </si>
+  <si>
+    <t>QRM</t>
+  </si>
+  <si>
+    <t>CMT</t>
+  </si>
+  <si>
+    <t>app-system-upload</t>
+  </si>
+  <si>
+    <t>app-lrs-200-setup_launch</t>
+  </si>
+  <si>
+    <t>app-random_error</t>
+  </si>
+  <si>
+    <t>app-system-override</t>
+  </si>
+  <si>
+    <t>app-upload_new_documents</t>
+  </si>
+  <si>
+    <t>AUTOSYS ALARM: WATCHFAILURE, JOB: app-random_error</t>
+  </si>
+  <si>
+    <t>AUTOSYS ALARM: JOB_FAILURE, JOB: app-system-override</t>
+  </si>
+  <si>
+    <t>AUTOSYS ALARM: JOB_FAILURE, JOB: app-ipload_new_documents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +186,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,14 +224,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,71 +559,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F476CB06-81BC-4429-AE97-5102B6612F13}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.53125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3">
+        <v>43619</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43620</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3">
+        <v>43621</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3">
+        <v>43622</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3">
+        <v>43623</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3">
+        <v>43624</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3">
+        <v>43625</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3">
+        <v>43626</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3">
+        <v>43627</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3">
+        <v>43628</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3">
+        <v>43629</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3">
+        <v>43630</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3">
+        <v>43631</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -540,7 +877,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -550,16 +887,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -567,10 +904,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -578,10 +915,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
